--- a/Analysis scripts/TE/pab1_TE_gene_ontology_pab1d-vs-pbp1d.xlsx
+++ b/Analysis scripts/TE/pab1_TE_gene_ontology_pab1d-vs-pbp1d.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t xml:space="preserve">query</t>
   </si>
@@ -99,10 +99,61 @@
     <t xml:space="preserve">c("GO:0009056", "GO:0044281")</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0009987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0008150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amide biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0043603", "GO:0044271")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oxoacid metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0019752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carboxylic acid metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organic acid metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0044237", "GO:0044281", "GO:0071704")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biosynthetic process</t>
+  </si>
+  <si>
     <t xml:space="preserve">metabolic process</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0008150</t>
+    <t xml:space="preserve">GO:0043603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amide metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006807</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0071704</t>
@@ -111,43 +162,13 @@
     <t xml:space="preserve">organic substance metabolic process</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0043436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxoacid metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0043603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amide metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organic acid metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0044237", "GO:0044281", "GO:0071704")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0019752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carboxylic acid metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0043604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amide biosynthetic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0043603", "GO:0044271")</t>
+    <t xml:space="preserve">GO:1901565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organonitrogen compound catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:1901564", "GO:1901575")</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0044283</t>
@@ -159,10 +180,22 @@
     <t xml:space="preserve">c("GO:0009058", "GO:0044281")</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0009058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biosynthetic process</t>
+    <t xml:space="preserve">GO:1901576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organic substance biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0009058", "GO:0071704")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1901575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organic substance catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0009056", "GO:0071704")</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0009063</t>
@@ -171,13 +204,16 @@
     <t xml:space="preserve">amino acid catabolic process</t>
   </si>
   <si>
-    <t xml:space="preserve">c("GO:0006520", "GO:0046395", "GO:1901565")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular process</t>
+    <t xml:space="preserve">c("GO:0046395", "GO:1901565")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peptide biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0006518", "GO:0043604", "GO:1901566")</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0006091</t>
@@ -189,31 +225,31 @@
     <t xml:space="preserve">GO:0044237</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:1901575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organic substance catabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0009056", "GO:0071704")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amino acid metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0019752", "GO:0044238", "GO:1901564")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1901576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organic substance biosynthetic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0009058", "GO:0071704")</t>
+    <t xml:space="preserve">GO:0006412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0009059", "GO:0010467", "GO:0019538", "GO:0043043")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0170040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proteinogenic amino acid catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0046395", "GO:0170039", "GO:1901565")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peptide metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0043603", "GO:1901564")</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0046395</t>
@@ -234,13 +270,37 @@
     <t xml:space="preserve">c("GO:0006082", "GO:0044248", "GO:0044282", "GO:1901575")</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0043043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peptide biosynthetic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0006518", "GO:0043604", "GO:1901566")</t>
+    <t xml:space="preserve">GO:0009259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ribonucleotide metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0009117", "GO:0019693")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0044249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0009058", "GO:0044237")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0170035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-amino acid catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0009063", "GO:0170033", "GO:1901606")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0008152", "GO:0009987")</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0019323</t>
@@ -315,6 +375,18 @@
     <t xml:space="preserve">GO:0043226</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0043229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intracellular organelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0005622", "GO:0043226")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organelle</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:1990904</t>
   </si>
   <si>
@@ -339,24 +411,21 @@
     <t xml:space="preserve">ribosome</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0043229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intracellular organelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0005622", "GO:0043226")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organelle</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0031974</t>
   </si>
   <si>
     <t xml:space="preserve">membrane-enclosed lumen</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0070013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intracellular organelle lumen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0043229", "GO:0043233")</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0043233</t>
   </si>
   <si>
@@ -366,15 +435,6 @@
     <t xml:space="preserve">c("GO:0031974", "GO:0043226")</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0070013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intracellular organelle lumen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0043229", "GO:0043233")</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0034515</t>
   </si>
   <si>
@@ -396,12 +456,6 @@
     <t xml:space="preserve">GO:0003674</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0003824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catalytic activity</t>
-  </si>
-  <si>
     <t xml:space="preserve">KEGG:01110</t>
   </si>
   <si>
@@ -435,6 +489,15 @@
     <t xml:space="preserve">Down</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0036211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein modification process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0019538", "GO:0043412")</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0030001</t>
   </si>
   <si>
@@ -444,6 +507,15 @@
     <t xml:space="preserve">GO:0006812</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0006811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monoatomic ion transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006810</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0034220</t>
   </si>
   <si>
@@ -453,40 +525,16 @@
     <t xml:space="preserve">c("GO:0006811", "GO:0055085")</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0036211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein modification process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0019538", "GO:0043412")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monoatomic ion transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0098660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inorganic ion transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0055085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0098655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monoatomic cation transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0006812", "GO:0034220")</t>
+    <t xml:space="preserve">monoatomic cation transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macromolecule modification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043170</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0042592</t>
@@ -495,7 +543,10 @@
     <t xml:space="preserve">homeostatic process</t>
   </si>
   <si>
-    <t xml:space="preserve">monoatomic cation transport</t>
+    <t xml:space="preserve">GO:0019725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular homeostasis</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0048878</t>
@@ -504,36 +555,6 @@
     <t xml:space="preserve">chemical homeostasis</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0055082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intracellular chemical homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0019725", "GO:0048878")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0019725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0006810", "GO:0009987")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0030003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intracellular monoatomic cation homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0006873", "GO:0055080")</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0043231</t>
   </si>
   <si>
@@ -564,39 +585,33 @@
     <t xml:space="preserve">c("GO:0008324", "GO:0022890")</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:1901702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salt transmembrane transporter activity</t>
+    <t xml:space="preserve">GO:0019706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein-cysteine S-palmitoyltransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0016409", "GO:0019707")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0019707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein-cysteine S-acyltransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("GO:0016417", "GO:0140096")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0015318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inorganic molecular entity transmembrane transporter activity</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0022857</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0015318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inorganic molecular entity transmembrane transporter activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0019706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein-cysteine S-palmitoyltransferase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0016409", "GO:0019707")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0019707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein-cysteine S-acyltransferase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0016417", "GO:0140096")</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0000978</t>
   </si>
   <si>
@@ -621,15 +636,6 @@
     <t xml:space="preserve">S-acyltransferase activity</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0015085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calcium ion transmembrane transporter activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0046873", "GO:1901702")</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0003700</t>
   </si>
   <si>
@@ -637,15 +643,6 @@
   </si>
   <si>
     <t xml:space="preserve">GO:0140110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0005388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-type calcium transporter activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("GO:0015085", "GO:0015662", "GO:0019829")</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0000981</t>
@@ -1035,22 +1032,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0000000239707719815935</v>
+        <v>0.000000046993662830204</v>
       </c>
       <c r="D2" t="n">
-        <v>802</v>
+        <v>775</v>
       </c>
       <c r="E2" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F2" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G2" t="n">
-        <v>0.29047619047619</v>
+        <v>0.282296650717703</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0760598503740648</v>
+        <v>0.0761290322580645</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -1062,10 +1059,10 @@
         <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M2" t="n">
-        <v>11506</v>
+        <v>11317</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
@@ -1079,22 +1076,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0000090774917383162</v>
+        <v>0.00000166139510693501</v>
       </c>
       <c r="D3" t="n">
-        <v>2171</v>
+        <v>2038</v>
       </c>
       <c r="E3" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F3" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G3" t="n">
-        <v>0.519047619047619</v>
+        <v>0.507177033492823</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0502072777521879</v>
+        <v>0.0520117762512267</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
@@ -1106,10 +1103,10 @@
         <v>20</v>
       </c>
       <c r="L3" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M3" t="n">
-        <v>22437</v>
+        <v>22098</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
@@ -1123,22 +1120,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0000303799205248861</v>
+        <v>0.00000530149255614526</v>
       </c>
       <c r="D4" t="n">
-        <v>1076</v>
+        <v>1035</v>
       </c>
       <c r="E4" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F4" t="n">
         <v>66</v>
       </c>
       <c r="G4" t="n">
-        <v>0.314285714285714</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0613382899628253</v>
+        <v>0.063768115942029</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -1150,10 +1147,10 @@
         <v>23</v>
       </c>
       <c r="L4" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M4" t="n">
-        <v>22439</v>
+        <v>22100</v>
       </c>
       <c r="N4" t="s">
         <v>24</v>
@@ -1167,22 +1164,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0000961054585819384</v>
+        <v>0.000101721247796435</v>
       </c>
       <c r="D5" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E5" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F5" t="n">
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0952380952380952</v>
+        <v>0.0956937799043062</v>
       </c>
       <c r="H5" t="n">
-        <v>0.126582278481013</v>
+        <v>0.125786163522013</v>
       </c>
       <c r="I5" t="s">
         <v>25</v>
@@ -1194,10 +1191,10 @@
         <v>26</v>
       </c>
       <c r="L5" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M5" t="n">
-        <v>11507</v>
+        <v>11318</v>
       </c>
       <c r="N5" t="s">
         <v>27</v>
@@ -1211,40 +1208,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000723137362788643</v>
+        <v>0.000667431246134615</v>
       </c>
       <c r="D6" t="n">
-        <v>3887</v>
+        <v>4984</v>
       </c>
       <c r="E6" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" t="n">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="G6" t="n">
-        <v>0.752380952380952</v>
+        <v>0.894736842105263</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0406483148958065</v>
+        <v>0.0375200642054575</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M6" t="n">
-        <v>3178</v>
+        <v>3849</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1255,40 +1252,40 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000958801159130578</v>
+        <v>0.000796076631071651</v>
       </c>
       <c r="D7" t="n">
-        <v>3696</v>
+        <v>543</v>
       </c>
       <c r="E7" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" t="n">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="G7" t="n">
-        <v>0.723809523809524</v>
+        <v>0.186602870813397</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0411255411255411</v>
+        <v>0.0718232044198895</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M7" t="n">
-        <v>17686</v>
+        <v>11153</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1299,40 +1296,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00107247925971506</v>
+        <v>0.000815663896341582</v>
       </c>
       <c r="D8" t="n">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="E8" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" t="n">
+        <v>32</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.15311004784689</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0802005012531328</v>
+      </c>
+      <c r="I8" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.161904761904762</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0767494356659142</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L8" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M8" t="n">
-        <v>11204</v>
+        <v>11048</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1343,40 +1340,40 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00108405800084735</v>
+        <v>0.000901819757649835</v>
       </c>
       <c r="D9" t="n">
-        <v>657</v>
+        <v>381</v>
       </c>
       <c r="E9" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G9" t="n">
-        <v>0.20952380952381</v>
+        <v>0.148325358851675</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0669710806697108</v>
+        <v>0.0813648293963255</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L9" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M9" t="n">
-        <v>11311</v>
+        <v>6252</v>
       </c>
       <c r="N9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1387,40 +1384,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00118890631211543</v>
+        <v>0.000911024668085044</v>
       </c>
       <c r="D10" t="n">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="E10" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>0.161904761904762</v>
+        <v>0.15311004784689</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0764044943820225</v>
+        <v>0.0798004987531172</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L10" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M10" t="n">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="N10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -1431,40 +1428,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0012102927345209</v>
+        <v>0.000953493585319827</v>
       </c>
       <c r="D11" t="n">
-        <v>425</v>
+        <v>2719</v>
       </c>
       <c r="E11" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F11" t="n">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="G11" t="n">
-        <v>0.157142857142857</v>
+        <v>0.578947368421053</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0776470588235294</v>
+        <v>0.044501655020228</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M11" t="n">
-        <v>6321</v>
+        <v>3271</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1475,25 +1472,25 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00129506658352919</v>
+        <v>0.00111850212312249</v>
       </c>
       <c r="D12" t="n">
-        <v>595</v>
+        <v>3857</v>
       </c>
       <c r="E12" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F12" t="n">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="G12" t="n">
-        <v>0.195238095238095</v>
+        <v>0.746411483253589</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0689075630252101</v>
+        <v>0.0404459424423127</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
@@ -1502,13 +1499,13 @@
         <v>43</v>
       </c>
       <c r="L12" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M12" t="n">
-        <v>11312</v>
+        <v>3159</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -1519,40 +1516,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00229391972500537</v>
+        <v>0.00118459487056302</v>
       </c>
       <c r="D13" t="n">
-        <v>357</v>
+        <v>617</v>
       </c>
       <c r="E13" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F13" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G13" t="n">
-        <v>0.138095238095238</v>
+        <v>0.200956937799043</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0812324929971989</v>
+        <v>0.0680713128038898</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
       </c>
       <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6518</v>
+      </c>
+      <c r="M13" t="n">
+        <v>11152</v>
+      </c>
+      <c r="N13" t="s">
         <v>46</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6524</v>
-      </c>
-      <c r="M13" t="n">
-        <v>11508</v>
-      </c>
-      <c r="N13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -1563,37 +1560,37 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00310355018246249</v>
+        <v>0.00153232620541479</v>
       </c>
       <c r="D14" t="n">
-        <v>2730</v>
+        <v>3668</v>
       </c>
       <c r="E14" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F14" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G14" t="n">
-        <v>0.571428571428571</v>
+        <v>0.717703349282297</v>
       </c>
       <c r="H14" t="n">
-        <v>0.043956043956044</v>
+        <v>0.0408942202835333</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M14" t="n">
-        <v>3290</v>
+        <v>17374</v>
       </c>
       <c r="N14" t="s">
         <v>18</v>
@@ -1607,40 +1604,40 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00317180508056414</v>
+        <v>0.00191858476732875</v>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
+        <v>456</v>
       </c>
       <c r="E15" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0523809523809524</v>
+        <v>0.162679425837321</v>
       </c>
       <c r="H15" t="n">
-        <v>0.174603174603175</v>
+        <v>0.0745614035087719</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
       </c>
       <c r="K15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6518</v>
+      </c>
+      <c r="M15" t="n">
+        <v>22099</v>
+      </c>
+      <c r="N15" t="s">
         <v>51</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6524</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3295</v>
-      </c>
-      <c r="N15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -1651,40 +1648,40 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00412731862740797</v>
+        <v>0.00215047021982045</v>
       </c>
       <c r="D16" t="n">
-        <v>4993</v>
+        <v>357</v>
       </c>
       <c r="E16" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F16" t="n">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="G16" t="n">
-        <v>0.885714285714286</v>
+        <v>0.138755980861244</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0372521530142199</v>
+        <v>0.0812324929971989</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
       </c>
       <c r="K16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6518</v>
+      </c>
+      <c r="M16" t="n">
+        <v>11319</v>
+      </c>
+      <c r="N16" t="s">
         <v>54</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6524</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3869</v>
-      </c>
-      <c r="N16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1695,22 +1692,22 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00724304006637989</v>
+        <v>0.00301870233475173</v>
       </c>
       <c r="D17" t="n">
-        <v>243</v>
+        <v>2710</v>
       </c>
       <c r="E17" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F17" t="n">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="G17" t="n">
-        <v>0.104761904761905</v>
+        <v>0.569377990430622</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0905349794238683</v>
+        <v>0.0439114391143911</v>
       </c>
       <c r="I17" t="s">
         <v>55</v>
@@ -1722,10 +1719,10 @@
         <v>56</v>
       </c>
       <c r="L17" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M17" t="n">
-        <v>1983</v>
+        <v>22106</v>
       </c>
       <c r="N17" t="s">
         <v>57</v>
@@ -1739,22 +1736,22 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0123148311479524</v>
+        <v>0.00333260914542099</v>
       </c>
       <c r="D18" t="n">
-        <v>815</v>
+        <v>780</v>
       </c>
       <c r="E18" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F18" t="n">
         <v>48</v>
       </c>
       <c r="G18" t="n">
-        <v>0.228571428571429</v>
+        <v>0.229665071770335</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0588957055214724</v>
+        <v>0.0615384615384615</v>
       </c>
       <c r="I18" t="s">
         <v>58</v>
@@ -1766,10 +1763,10 @@
         <v>59</v>
       </c>
       <c r="L18" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M18" t="n">
-        <v>22444</v>
+        <v>22105</v>
       </c>
       <c r="N18" t="s">
         <v>60</v>
@@ -1783,22 +1780,22 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0137626375558863</v>
+        <v>0.00364159094333457</v>
       </c>
       <c r="D19" t="n">
-        <v>253</v>
+        <v>64</v>
       </c>
       <c r="E19" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F19" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>0.104761904761905</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.171875</v>
       </c>
       <c r="I19" t="s">
         <v>61</v>
@@ -1810,10 +1807,10 @@
         <v>62</v>
       </c>
       <c r="L19" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M19" t="n">
-        <v>2278</v>
+        <v>3276</v>
       </c>
       <c r="N19" t="s">
         <v>63</v>
@@ -1827,22 +1824,22 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0154558836330607</v>
+        <v>0.00427851079058961</v>
       </c>
       <c r="D20" t="n">
-        <v>2716</v>
+        <v>494</v>
       </c>
       <c r="E20" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F20" t="n">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="G20" t="n">
-        <v>0.557142857142857</v>
+        <v>0.167464114832536</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0430780559646539</v>
+        <v>0.0708502024291498</v>
       </c>
       <c r="I20" t="s">
         <v>64</v>
@@ -1854,10 +1851,10 @@
         <v>65</v>
       </c>
       <c r="L20" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M20" t="n">
-        <v>22445</v>
+        <v>10843</v>
       </c>
       <c r="N20" t="s">
         <v>66</v>
@@ -1871,22 +1868,22 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0235656359080263</v>
+        <v>0.00604390640998233</v>
       </c>
       <c r="D21" t="n">
-        <v>106</v>
+        <v>241</v>
       </c>
       <c r="E21" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F21" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0619047619047619</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="H21" t="n">
-        <v>0.122641509433962</v>
+        <v>0.0912863070539419</v>
       </c>
       <c r="I21" t="s">
         <v>67</v>
@@ -1898,10 +1895,10 @@
         <v>68</v>
       </c>
       <c r="L21" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M21" t="n">
-        <v>12742</v>
+        <v>1974</v>
       </c>
       <c r="N21" t="s">
         <v>69</v>
@@ -1915,22 +1912,22 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0260736020165785</v>
+        <v>0.00893963513748368</v>
       </c>
       <c r="D22" t="n">
-        <v>107</v>
+        <v>489</v>
       </c>
       <c r="E22" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0619047619047619</v>
+        <v>0.162679425837321</v>
       </c>
       <c r="H22" t="n">
-        <v>0.121495327102804</v>
+        <v>0.0695296523517382</v>
       </c>
       <c r="I22" t="s">
         <v>70</v>
@@ -1942,10 +1939,10 @@
         <v>71</v>
       </c>
       <c r="L22" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M22" t="n">
-        <v>5172</v>
+        <v>2194</v>
       </c>
       <c r="N22" t="s">
         <v>72</v>
@@ -1959,22 +1956,22 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.026091976540641</v>
+        <v>0.0196335171026702</v>
       </c>
       <c r="D23" t="n">
-        <v>535</v>
+        <v>39</v>
       </c>
       <c r="E23" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F23" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.166666666666667</v>
+        <v>0.0382775119617225</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0654205607476635</v>
+        <v>0.205128205128205</v>
       </c>
       <c r="I23" t="s">
         <v>73</v>
@@ -1986,10 +1983,10 @@
         <v>74</v>
       </c>
       <c r="L23" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M23" t="n">
-        <v>10999</v>
+        <v>20790</v>
       </c>
       <c r="N23" t="s">
         <v>75</v>
@@ -2003,22 +2000,22 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0499871385097083</v>
+        <v>0.0224875037125873</v>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>533</v>
       </c>
       <c r="E24" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G24" t="n">
-        <v>0.019047619047619</v>
+        <v>0.167464114832536</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5</v>
+        <v>0.0656660412757974</v>
       </c>
       <c r="I24" t="s">
         <v>76</v>
@@ -2030,10 +2027,10 @@
         <v>77</v>
       </c>
       <c r="L24" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M24" t="n">
-        <v>5943</v>
+        <v>2266</v>
       </c>
       <c r="N24" t="s">
         <v>78</v>
@@ -2047,40 +2044,40 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0000000330489889368809</v>
+        <v>0.0254172238133138</v>
       </c>
       <c r="D25" t="n">
-        <v>5218</v>
+        <v>107</v>
       </c>
       <c r="E25" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>0.947867298578199</v>
+        <v>0.062200956937799</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0383288616328095</v>
+        <v>0.121495327102804</v>
       </c>
       <c r="I25" t="s">
         <v>79</v>
       </c>
       <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
         <v>80</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="n">
+        <v>6518</v>
+      </c>
+      <c r="M25" t="n">
+        <v>12523</v>
+      </c>
+      <c r="N25" t="s">
         <v>81</v>
-      </c>
-      <c r="L25" t="n">
-        <v>6559</v>
-      </c>
-      <c r="M25" t="n">
-        <v>237</v>
-      </c>
-      <c r="N25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -2091,40 +2088,40 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.000000386641063735366</v>
+        <v>0.0280896238922367</v>
       </c>
       <c r="D26" t="n">
-        <v>4437</v>
+        <v>108</v>
       </c>
       <c r="E26" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F26" t="n">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
-        <v>0.853080568720379</v>
+        <v>0.062200956937799</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0405679513184584</v>
+        <v>0.12037037037037</v>
       </c>
       <c r="I26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="J26" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="L26" t="n">
+        <v>6518</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5146</v>
+      </c>
+      <c r="N26" t="s">
         <v>84</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6559</v>
-      </c>
-      <c r="M26" t="n">
-        <v>309</v>
-      </c>
-      <c r="N26" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -2135,40 +2132,40 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0000891894590857421</v>
+        <v>0.0286268387551562</v>
       </c>
       <c r="D27" t="n">
-        <v>1100</v>
+        <v>140</v>
       </c>
       <c r="E27" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F27" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>0.303317535545024</v>
+        <v>0.0717703349282297</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0581818181818182</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="I27" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
         <v>86</v>
       </c>
-      <c r="J27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="L27" t="n">
+        <v>6518</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3461</v>
+      </c>
+      <c r="N27" t="s">
         <v>87</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6559</v>
-      </c>
-      <c r="M27" t="n">
-        <v>380</v>
-      </c>
-      <c r="N27" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="28">
@@ -2179,40 +2176,40 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.000740831145628513</v>
+        <v>0.030255121804877</v>
       </c>
       <c r="D28" t="n">
-        <v>1218</v>
+        <v>2640</v>
       </c>
       <c r="E28" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F28" t="n">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="G28" t="n">
-        <v>0.312796208530806</v>
+        <v>0.54066985645933</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0541871921182266</v>
+        <v>0.0428030303030303</v>
       </c>
       <c r="I28" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
         <v>89</v>
       </c>
-      <c r="J28" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="L28" t="n">
+        <v>6518</v>
+      </c>
+      <c r="M28" t="n">
+        <v>11305</v>
+      </c>
+      <c r="N28" t="s">
         <v>90</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6559</v>
-      </c>
-      <c r="M28" t="n">
-        <v>310</v>
-      </c>
-      <c r="N28" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="29">
@@ -2223,37 +2220,37 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.000889760506581017</v>
+        <v>0.0414377514806718</v>
       </c>
       <c r="D29" t="n">
-        <v>5768</v>
+        <v>43</v>
       </c>
       <c r="E29" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F29" t="n">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="G29" t="n">
-        <v>0.966824644549763</v>
+        <v>0.0382775119617225</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0353675450762829</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="I29" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="K29" t="s">
         <v>92</v>
       </c>
       <c r="L29" t="n">
-        <v>6559</v>
+        <v>6518</v>
       </c>
       <c r="M29" t="n">
-        <v>3447</v>
+        <v>20785</v>
       </c>
       <c r="N29" t="s">
         <v>93</v>
@@ -2267,40 +2264,40 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00151901588688206</v>
+        <v>0.0439357338494498</v>
       </c>
       <c r="D30" t="n">
-        <v>1506</v>
+        <v>3507</v>
       </c>
       <c r="E30" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F30" t="n">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="G30" t="n">
-        <v>0.360189573459716</v>
+        <v>0.669856459330144</v>
       </c>
       <c r="H30" t="n">
-        <v>0.050464807436919</v>
+        <v>0.0399201596806387</v>
       </c>
       <c r="I30" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s">
         <v>94</v>
       </c>
-      <c r="J30" t="s">
-        <v>80</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="L30" t="n">
+        <v>6518</v>
+      </c>
+      <c r="M30" t="n">
+        <v>11299</v>
+      </c>
+      <c r="N30" t="s">
         <v>95</v>
-      </c>
-      <c r="L30" t="n">
-        <v>6559</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1888</v>
-      </c>
-      <c r="N30" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -2311,40 +2308,40 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00151901588688206</v>
+        <v>0.0499933622257179</v>
       </c>
       <c r="D31" t="n">
-        <v>1506</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F31" t="n">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>0.360189573459716</v>
+        <v>0.0191387559808612</v>
       </c>
       <c r="H31" t="n">
-        <v>0.050464807436919</v>
+        <v>0.5</v>
       </c>
       <c r="I31" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
         <v>97</v>
       </c>
-      <c r="J31" t="s">
-        <v>80</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="L31" t="n">
+        <v>6518</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5877</v>
+      </c>
+      <c r="N31" t="s">
         <v>98</v>
-      </c>
-      <c r="L31" t="n">
-        <v>6559</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1884</v>
-      </c>
-      <c r="N31" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -2355,37 +2352,37 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00164111358075502</v>
+        <v>0.0000000372665262633676</v>
       </c>
       <c r="D32" t="n">
-        <v>570</v>
+        <v>5222</v>
       </c>
       <c r="E32" t="n">
         <v>211</v>
       </c>
       <c r="F32" t="n">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="G32" t="n">
-        <v>0.180094786729858</v>
+        <v>0.947867298578199</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.0382995021064726</v>
       </c>
       <c r="I32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" t="s">
         <v>100</v>
-      </c>
-      <c r="J32" t="s">
-        <v>80</v>
       </c>
       <c r="K32" t="s">
         <v>101</v>
       </c>
       <c r="L32" t="n">
-        <v>6559</v>
+        <v>6557</v>
       </c>
       <c r="M32" t="n">
-        <v>4039</v>
+        <v>237</v>
       </c>
       <c r="N32" t="s">
         <v>102</v>
@@ -2399,37 +2396,37 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00300147793329732</v>
+        <v>0.000000459206361354941</v>
       </c>
       <c r="D33" t="n">
-        <v>234</v>
+        <v>4444</v>
       </c>
       <c r="E33" t="n">
         <v>211</v>
       </c>
       <c r="F33" t="n">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0995260663507109</v>
+        <v>0.853080568720379</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0897435897435897</v>
+        <v>0.0405040504050405</v>
       </c>
       <c r="I33" t="s">
         <v>103</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s">
         <v>104</v>
       </c>
       <c r="L33" t="n">
-        <v>6559</v>
+        <v>6557</v>
       </c>
       <c r="M33" t="n">
-        <v>2081</v>
+        <v>309</v>
       </c>
       <c r="N33" t="s">
         <v>105</v>
@@ -2443,40 +2440,40 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00330151920048562</v>
+        <v>0.000135805617915188</v>
       </c>
       <c r="D34" t="n">
-        <v>273</v>
+        <v>1114</v>
       </c>
       <c r="E34" t="n">
         <v>211</v>
       </c>
       <c r="F34" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="G34" t="n">
-        <v>0.109004739336493</v>
+        <v>0.303317535545024</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0842490842490843</v>
+        <v>0.0574506283662478</v>
       </c>
       <c r="I34" t="s">
         <v>106</v>
       </c>
       <c r="J34" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s">
         <v>107</v>
       </c>
       <c r="L34" t="n">
-        <v>6559</v>
+        <v>6557</v>
       </c>
       <c r="M34" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="N34" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
@@ -2487,40 +2484,40 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00357863393584775</v>
+        <v>0.000689531713474678</v>
       </c>
       <c r="D35" t="n">
-        <v>4670</v>
+        <v>1217</v>
       </c>
       <c r="E35" t="n">
         <v>211</v>
       </c>
       <c r="F35" t="n">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="G35" t="n">
-        <v>0.834123222748815</v>
+        <v>0.312796208530806</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0376873661670236</v>
+        <v>0.0542317173377157</v>
       </c>
       <c r="I35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J35" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L35" t="n">
-        <v>6559</v>
+        <v>6557</v>
       </c>
       <c r="M35" t="n">
-        <v>1885</v>
+        <v>310</v>
       </c>
       <c r="N35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -2531,40 +2528,40 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00365215613879926</v>
+        <v>0.00096143523599863</v>
       </c>
       <c r="D36" t="n">
-        <v>4671</v>
+        <v>5771</v>
       </c>
       <c r="E36" t="n">
         <v>211</v>
       </c>
       <c r="F36" t="n">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="G36" t="n">
-        <v>0.834123222748815</v>
+        <v>0.966824644549763</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0376792977949047</v>
+        <v>0.0353491595910587</v>
       </c>
       <c r="I36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J36" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L36" t="n">
-        <v>6559</v>
+        <v>6557</v>
       </c>
       <c r="M36" t="n">
-        <v>1882</v>
+        <v>3439</v>
       </c>
       <c r="N36" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -2575,40 +2572,40 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0124269838156103</v>
+        <v>0.0016546360363911</v>
       </c>
       <c r="D37" t="n">
-        <v>1064</v>
+        <v>1511</v>
       </c>
       <c r="E37" t="n">
         <v>211</v>
       </c>
       <c r="F37" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G37" t="n">
-        <v>0.265402843601896</v>
+        <v>0.360189573459716</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.0502978160158835</v>
       </c>
       <c r="I37" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J37" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K37" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L37" t="n">
-        <v>6559</v>
+        <v>6557</v>
       </c>
       <c r="M37" t="n">
-        <v>1224</v>
+        <v>1884</v>
       </c>
       <c r="N37" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -2619,40 +2616,40 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0124269838156103</v>
+        <v>0.0016546360363911</v>
       </c>
       <c r="D38" t="n">
-        <v>1064</v>
+        <v>1511</v>
       </c>
       <c r="E38" t="n">
         <v>211</v>
       </c>
       <c r="F38" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G38" t="n">
-        <v>0.265402843601896</v>
+        <v>0.360189573459716</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.0502978160158835</v>
       </c>
       <c r="I38" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J38" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K38" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L38" t="n">
-        <v>6559</v>
+        <v>6557</v>
       </c>
       <c r="M38" t="n">
-        <v>1889</v>
+        <v>1880</v>
       </c>
       <c r="N38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -2663,40 +2660,40 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0124269838156103</v>
+        <v>0.00196486274951532</v>
       </c>
       <c r="D39" t="n">
-        <v>1064</v>
+        <v>4679</v>
       </c>
       <c r="E39" t="n">
         <v>211</v>
       </c>
       <c r="F39" t="n">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="G39" t="n">
-        <v>0.265402843601896</v>
+        <v>0.838862559241706</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.0378285958538149</v>
       </c>
       <c r="I39" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J39" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L39" t="n">
-        <v>6559</v>
+        <v>6557</v>
       </c>
       <c r="M39" t="n">
-        <v>2404</v>
+        <v>1881</v>
       </c>
       <c r="N39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
@@ -2707,40 +2704,40 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0237262197380116</v>
+        <v>0.00200633642397519</v>
       </c>
       <c r="D40" t="n">
-        <v>26</v>
+        <v>4680</v>
       </c>
       <c r="E40" t="n">
         <v>211</v>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="G40" t="n">
-        <v>0.028436018957346</v>
+        <v>0.838862559241706</v>
       </c>
       <c r="H40" t="n">
-        <v>0.230769230769231</v>
+        <v>0.0378205128205128</v>
       </c>
       <c r="I40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J40" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L40" t="n">
-        <v>6559</v>
+        <v>6557</v>
       </c>
       <c r="M40" t="n">
-        <v>1503</v>
+        <v>1878</v>
       </c>
       <c r="N40" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -2751,37 +2748,37 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0297903454662178</v>
+        <v>0.00280266948004647</v>
       </c>
       <c r="D41" t="n">
-        <v>3825</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F41" t="n">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="G41" t="n">
-        <v>0.707547169811321</v>
+        <v>0.170616113744076</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="I41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J41" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s">
         <v>125</v>
       </c>
       <c r="L41" t="n">
-        <v>6541</v>
+        <v>6557</v>
       </c>
       <c r="M41" t="n">
-        <v>1483</v>
+        <v>4043</v>
       </c>
       <c r="N41" t="s">
         <v>126</v>
@@ -2795,40 +2792,40 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0384732758603199</v>
+        <v>0.00369905412245883</v>
       </c>
       <c r="D42" t="n">
-        <v>2352</v>
+        <v>238</v>
       </c>
       <c r="E42" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F42" t="n">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="G42" t="n">
-        <v>0.481132075471698</v>
+        <v>0.0995260663507109</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0433673469387755</v>
+        <v>0.0882352941176471</v>
       </c>
       <c r="I42" t="s">
         <v>127</v>
       </c>
       <c r="J42" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="K42" t="s">
         <v>128</v>
       </c>
       <c r="L42" t="n">
-        <v>6541</v>
+        <v>6557</v>
       </c>
       <c r="M42" t="n">
-        <v>368</v>
+        <v>2076</v>
       </c>
       <c r="N42" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
@@ -2839,40 +2836,40 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0.000251317400340449</v>
+        <v>0.00592170073281123</v>
       </c>
       <c r="D43" t="n">
-        <v>351</v>
+        <v>284</v>
       </c>
       <c r="E43" t="n">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="F43" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G43" t="n">
-        <v>0.339805825242718</v>
+        <v>0.109004739336493</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0997150997150997</v>
+        <v>0.0809859154929577</v>
       </c>
       <c r="I43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J43" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s">
         <v>131</v>
       </c>
       <c r="L43" t="n">
-        <v>2092</v>
+        <v>6557</v>
       </c>
       <c r="M43" t="n">
-        <v>182</v>
+        <v>389</v>
       </c>
       <c r="N43" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
@@ -2883,40 +2880,40 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.00104537973992131</v>
+        <v>0.0112664319118135</v>
       </c>
       <c r="D44" t="n">
-        <v>797</v>
+        <v>1062</v>
       </c>
       <c r="E44" t="n">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="F44" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G44" t="n">
-        <v>0.572815533980582</v>
+        <v>0.265402843601896</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0740276035131744</v>
+        <v>0.0527306967984934</v>
       </c>
       <c r="I44" t="s">
+        <v>132</v>
+      </c>
+      <c r="J44" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44" t="s">
         <v>133</v>
       </c>
-      <c r="J44" t="s">
-        <v>130</v>
-      </c>
-      <c r="K44" t="s">
-        <v>134</v>
-      </c>
       <c r="L44" t="n">
-        <v>2092</v>
+        <v>6557</v>
       </c>
       <c r="M44" t="n">
-        <v>181</v>
+        <v>1221</v>
       </c>
       <c r="N44" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
@@ -2927,40 +2924,40 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0063793808767698</v>
+        <v>0.0112664319118135</v>
       </c>
       <c r="D45" t="n">
-        <v>55</v>
+        <v>1062</v>
       </c>
       <c r="E45" t="n">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0970873786407767</v>
+        <v>0.265402843601896</v>
       </c>
       <c r="H45" t="n">
-        <v>0.181818181818182</v>
+        <v>0.0527306967984934</v>
       </c>
       <c r="I45" t="s">
+        <v>134</v>
+      </c>
+      <c r="J45" t="s">
+        <v>100</v>
+      </c>
+      <c r="K45" t="s">
         <v>135</v>
       </c>
-      <c r="J45" t="s">
-        <v>130</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="L45" t="n">
+        <v>6557</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2399</v>
+      </c>
+      <c r="N45" t="s">
         <v>136</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2092</v>
-      </c>
-      <c r="M45" t="n">
-        <v>2</v>
-      </c>
-      <c r="N45" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="46">
@@ -2971,40 +2968,304 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0222611174589898</v>
+        <v>0.0112664319118135</v>
       </c>
       <c r="D46" t="n">
-        <v>112</v>
+        <v>1062</v>
       </c>
       <c r="E46" t="n">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="F46" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="G46" t="n">
-        <v>0.135922330097087</v>
+        <v>0.265402843601896</v>
       </c>
       <c r="H46" t="n">
-        <v>0.125</v>
+        <v>0.0527306967984934</v>
       </c>
       <c r="I46" t="s">
         <v>137</v>
       </c>
       <c r="J46" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s">
         <v>138</v>
       </c>
       <c r="L46" t="n">
-        <v>2092</v>
+        <v>6557</v>
       </c>
       <c r="M46" t="n">
+        <v>1885</v>
+      </c>
+      <c r="N46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0225311459258253</v>
+      </c>
+      <c r="D47" t="n">
+        <v>26</v>
+      </c>
+      <c r="E47" t="n">
+        <v>211</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.028436018957346</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.230769230769231</v>
+      </c>
+      <c r="I47" t="s">
+        <v>140</v>
+      </c>
+      <c r="J47" t="s">
+        <v>100</v>
+      </c>
+      <c r="K47" t="s">
+        <v>141</v>
+      </c>
+      <c r="L47" t="n">
+        <v>6557</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0220188074429771</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3827</v>
+      </c>
+      <c r="E48" t="n">
+        <v>211</v>
+      </c>
+      <c r="F48" t="n">
+        <v>150</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.710900473933649</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0391951920564411</v>
+      </c>
+      <c r="I48" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" t="s">
+        <v>144</v>
+      </c>
+      <c r="K48" t="s">
+        <v>145</v>
+      </c>
+      <c r="L48" t="n">
+        <v>6539</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1480</v>
+      </c>
+      <c r="N48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.000253458499889108</v>
+      </c>
+      <c r="D49" t="n">
+        <v>351</v>
+      </c>
+      <c r="E49" t="n">
+        <v>106</v>
+      </c>
+      <c r="F49" t="n">
+        <v>35</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.330188679245283</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0997150997150997</v>
+      </c>
+      <c r="I49" t="s">
+        <v>147</v>
+      </c>
+      <c r="J49" t="s">
+        <v>148</v>
+      </c>
+      <c r="K49" t="s">
+        <v>149</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2161</v>
+      </c>
+      <c r="M49" t="n">
+        <v>182</v>
+      </c>
+      <c r="N49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.00117273365201056</v>
+      </c>
+      <c r="D50" t="n">
+        <v>798</v>
+      </c>
+      <c r="E50" t="n">
+        <v>106</v>
+      </c>
+      <c r="F50" t="n">
+        <v>59</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.556603773584906</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0739348370927318</v>
+      </c>
+      <c r="I50" t="s">
+        <v>151</v>
+      </c>
+      <c r="J50" t="s">
+        <v>148</v>
+      </c>
+      <c r="K50" t="s">
+        <v>152</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2161</v>
+      </c>
+      <c r="M50" t="n">
+        <v>181</v>
+      </c>
+      <c r="N50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.00636801755545258</v>
+      </c>
+      <c r="D51" t="n">
+        <v>55</v>
+      </c>
+      <c r="E51" t="n">
+        <v>106</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0943396226415094</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.181818181818182</v>
+      </c>
+      <c r="I51" t="s">
+        <v>153</v>
+      </c>
+      <c r="J51" t="s">
+        <v>148</v>
+      </c>
+      <c r="K51" t="s">
+        <v>154</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2161</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0221609438140036</v>
+      </c>
+      <c r="D52" t="n">
+        <v>112</v>
+      </c>
+      <c r="E52" t="n">
+        <v>106</v>
+      </c>
+      <c r="F52" t="n">
+        <v>14</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.132075471698113</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I52" t="s">
+        <v>155</v>
+      </c>
+      <c r="J52" t="s">
+        <v>148</v>
+      </c>
+      <c r="K52" t="s">
+        <v>156</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2161</v>
+      </c>
+      <c r="M52" t="n">
         <v>184</v>
       </c>
-      <c r="N46" t="s">
-        <v>132</v>
+      <c r="N52" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3067,280 +3328,280 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000733350009142094</v>
+        <v>0.000666547758200293</v>
       </c>
       <c r="D2" t="n">
-        <v>109</v>
+        <v>691</v>
       </c>
       <c r="E2" t="n">
         <v>255</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.207843137254902</v>
       </c>
       <c r="H2" t="n">
-        <v>0.155963302752294</v>
+        <v>0.0767004341534009</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L2" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M2" t="n">
-        <v>6961</v>
+        <v>9821</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00117958936853554</v>
+        <v>0.000742663693692779</v>
       </c>
       <c r="D3" t="n">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="E3" t="n">
         <v>255</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0941176470588235</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>0.115942028985507</v>
+        <v>0.155963302752294</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L3" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M3" t="n">
-        <v>8894</v>
+        <v>6883</v>
       </c>
       <c r="N3" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00186779666974312</v>
+        <v>0.001852670095482</v>
       </c>
       <c r="D4" t="n">
-        <v>832</v>
+        <v>242</v>
       </c>
       <c r="E4" t="n">
         <v>255</v>
       </c>
       <c r="F4" t="n">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.231372549019608</v>
+        <v>0.101960784313725</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0709134615384615</v>
+        <v>0.107438016528926</v>
       </c>
       <c r="I4" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L4" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M4" t="n">
-        <v>9953</v>
+        <v>2520</v>
       </c>
       <c r="N4" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00196956075297968</v>
+        <v>0.0163856804831579</v>
       </c>
       <c r="D5" t="n">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="E5" t="n">
         <v>255</v>
       </c>
       <c r="F5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>0.101960784313725</v>
+        <v>0.0823529411764706</v>
       </c>
       <c r="H5" t="n">
-        <v>0.106995884773663</v>
+        <v>0.108247422680412</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="L5" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M5" t="n">
-        <v>2531</v>
+        <v>8793</v>
       </c>
       <c r="N5" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00484373888426769</v>
+        <v>0.0251244380810935</v>
       </c>
       <c r="D6" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E6" t="n">
         <v>255</v>
       </c>
       <c r="F6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0901960784313725</v>
+        <v>0.0862745098039216</v>
       </c>
       <c r="H6" t="n">
-        <v>0.110047846889952</v>
+        <v>0.102325581395349</v>
       </c>
       <c r="I6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L6" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M6" t="n">
-        <v>19708</v>
+        <v>2521</v>
       </c>
       <c r="N6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0117241989548721</v>
+        <v>0.0286540573559737</v>
       </c>
       <c r="D7" t="n">
-        <v>190</v>
+        <v>845</v>
       </c>
       <c r="E7" t="n">
         <v>255</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0823529411764706</v>
+        <v>0.219607843137255</v>
       </c>
       <c r="H7" t="n">
-        <v>0.110526315789474</v>
+        <v>0.0662721893491124</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L7" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M7" t="n">
-        <v>19703</v>
+        <v>11034</v>
       </c>
       <c r="N7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0281037405971141</v>
+        <v>0.0339189627642092</v>
       </c>
       <c r="D8" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E8" t="n">
         <v>255</v>
@@ -3352,83 +3613,83 @@
         <v>0.109803921568627</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0888888888888889</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="I8" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L8" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M8" t="n">
-        <v>10755</v>
+        <v>10601</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0286110134204475</v>
+        <v>0.0425366073313174</v>
       </c>
       <c r="D9" t="n">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="E9" t="n">
         <v>255</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0862745098039216</v>
+        <v>0.101960784313725</v>
       </c>
       <c r="H9" t="n">
-        <v>0.101382488479263</v>
+        <v>0.0902777777777778</v>
       </c>
       <c r="I9" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="L9" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M9" t="n">
-        <v>2532</v>
+        <v>6234</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0301572551526781</v>
+        <v>0.0444350006730432</v>
       </c>
       <c r="D10" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E10" t="n">
         <v>255</v>
@@ -3440,993 +3701,685 @@
         <v>0.0980392156862745</v>
       </c>
       <c r="H10" t="n">
-        <v>0.093984962406015</v>
+        <v>0.0919117647058824</v>
       </c>
       <c r="I10" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L10" t="n">
-        <v>6524</v>
+        <v>6518</v>
       </c>
       <c r="M10" t="n">
-        <v>13771</v>
+        <v>13544</v>
       </c>
       <c r="N10" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0331887009644116</v>
+        <v>0.000330120544437532</v>
       </c>
       <c r="D11" t="n">
-        <v>235</v>
+        <v>4392</v>
       </c>
       <c r="E11" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F11" t="n">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0901960784313725</v>
+        <v>0.80078125</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0978723404255319</v>
+        <v>0.0466757741347905</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L11" t="n">
-        <v>6524</v>
+        <v>6557</v>
       </c>
       <c r="M11" t="n">
-        <v>14965</v>
+        <v>1883</v>
       </c>
       <c r="N11" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0350180059410778</v>
+        <v>0.000355361532025655</v>
       </c>
       <c r="D12" t="n">
-        <v>285</v>
+        <v>4395</v>
       </c>
       <c r="E12" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F12" t="n">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="G12" t="n">
-        <v>0.101960784313725</v>
+        <v>0.80078125</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0912280701754386</v>
+        <v>0.0466439135381115</v>
       </c>
       <c r="I12" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L12" t="n">
-        <v>6524</v>
+        <v>6557</v>
       </c>
       <c r="M12" t="n">
-        <v>6303</v>
+        <v>1879</v>
       </c>
       <c r="N12" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0451480284400619</v>
+        <v>0.00660654482330287</v>
       </c>
       <c r="D13" t="n">
-        <v>504</v>
+        <v>1159</v>
       </c>
       <c r="E13" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F13" t="n">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G13" t="n">
-        <v>0.149019607843137</v>
+        <v>0.27734375</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0753968253968254</v>
+        <v>0.0612597066436583</v>
       </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="L13" t="n">
-        <v>6524</v>
+        <v>6557</v>
       </c>
       <c r="M13" t="n">
-        <v>14966</v>
+        <v>687</v>
       </c>
       <c r="N13" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0456485238314146</v>
+        <v>0.00847426726066408</v>
       </c>
       <c r="D14" t="n">
-        <v>162</v>
+        <v>4679</v>
       </c>
       <c r="E14" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0705882352941176</v>
+        <v>0.8203125</v>
       </c>
       <c r="H14" t="n">
-        <v>0.111111111111111</v>
+        <v>0.0448813849113058</v>
       </c>
       <c r="I14" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="L14" t="n">
-        <v>6524</v>
+        <v>6557</v>
       </c>
       <c r="M14" t="n">
-        <v>6963</v>
+        <v>1881</v>
       </c>
       <c r="N14" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000528469320200441</v>
+        <v>0.00866183788551728</v>
       </c>
       <c r="D15" t="n">
-        <v>4384</v>
+        <v>4680</v>
       </c>
       <c r="E15" t="n">
         <v>256</v>
       </c>
       <c r="F15" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G15" t="n">
-        <v>0.796875</v>
+        <v>0.8203125</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0465328467153285</v>
+        <v>0.0448717948717949</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="L15" t="n">
-        <v>6559</v>
+        <v>6557</v>
       </c>
       <c r="M15" t="n">
-        <v>1887</v>
+        <v>1878</v>
       </c>
       <c r="N15" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000568040337697739</v>
+        <v>0.0149063258321187</v>
       </c>
       <c r="D16" t="n">
-        <v>4387</v>
+        <v>5222</v>
       </c>
       <c r="E16" t="n">
         <v>256</v>
       </c>
       <c r="F16" t="n">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="G16" t="n">
-        <v>0.796875</v>
+        <v>0.88671875</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0465010257579211</v>
+        <v>0.0434699348908464</v>
       </c>
       <c r="I16" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="L16" t="n">
-        <v>6559</v>
+        <v>6557</v>
       </c>
       <c r="M16" t="n">
-        <v>1883</v>
+        <v>237</v>
       </c>
       <c r="N16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00435986053267795</v>
+        <v>0.000399194528542263</v>
       </c>
       <c r="D17" t="n">
-        <v>1146</v>
+        <v>58</v>
       </c>
       <c r="E17" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F17" t="n">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.27734375</v>
+        <v>0.0466926070038911</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0619546247818499</v>
+        <v>0.206896551724138</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="L17" t="n">
-        <v>6559</v>
+        <v>6539</v>
       </c>
       <c r="M17" t="n">
-        <v>689</v>
+        <v>6230</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00662696800058151</v>
+        <v>0.0158774996556996</v>
       </c>
       <c r="D18" t="n">
-        <v>4670</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F18" t="n">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8203125</v>
+        <v>0.0155642023346304</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0449678800856531</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I18" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K18" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="L18" t="n">
-        <v>6559</v>
+        <v>6539</v>
       </c>
       <c r="M18" t="n">
-        <v>1885</v>
+        <v>3670</v>
       </c>
       <c r="N18" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00677515819342336</v>
+        <v>0.0158774996556996</v>
       </c>
       <c r="D19" t="n">
-        <v>4671</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F19" t="n">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8203125</v>
+        <v>0.0155642023346304</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0449582530507386</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="L19" t="n">
-        <v>6559</v>
+        <v>6539</v>
       </c>
       <c r="M19" t="n">
-        <v>1882</v>
+        <v>3671</v>
       </c>
       <c r="N19" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0128688417263428</v>
+        <v>0.0166123801653295</v>
       </c>
       <c r="D20" t="n">
-        <v>5218</v>
+        <v>196</v>
       </c>
       <c r="E20" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F20" t="n">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>0.88671875</v>
+        <v>0.0778210116731518</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0435032579532388</v>
+        <v>0.102040816326531</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K20" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="L20" t="n">
-        <v>6559</v>
+        <v>6539</v>
       </c>
       <c r="M20" t="n">
-        <v>237</v>
+        <v>2474</v>
       </c>
       <c r="N20" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.000399639177744216</v>
+        <v>0.0181935579515322</v>
       </c>
       <c r="D21" t="n">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="E21" t="n">
         <v>257</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0466926070038911</v>
+        <v>0.0583657587548638</v>
       </c>
       <c r="H21" t="n">
-        <v>0.206896551724138</v>
+        <v>0.121951219512195</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J21" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="K21" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="L21" t="n">
-        <v>6541</v>
+        <v>6539</v>
       </c>
       <c r="M21" t="n">
-        <v>6275</v>
+        <v>117</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00332489273068867</v>
+        <v>0.0191401674021495</v>
       </c>
       <c r="D22" t="n">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E22" t="n">
         <v>257</v>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0505836575875486</v>
+        <v>0.0194552529182879</v>
       </c>
       <c r="H22" t="n">
-        <v>0.158536585365854</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L22" t="n">
-        <v>6541</v>
+        <v>6539</v>
       </c>
       <c r="M22" t="n">
-        <v>10973</v>
+        <v>2780</v>
       </c>
       <c r="N22" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0143717793144117</v>
+        <v>0.0191401674021495</v>
       </c>
       <c r="D23" t="n">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="E23" t="n">
         <v>257</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0778210116731518</v>
+        <v>0.0194552529182879</v>
       </c>
       <c r="H23" t="n">
-        <v>0.103092783505155</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="I23" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="J23" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L23" t="n">
-        <v>6541</v>
+        <v>6539</v>
       </c>
       <c r="M23" t="n">
-        <v>2482</v>
+        <v>2788</v>
       </c>
       <c r="N23" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0159266115571411</v>
+        <v>0.0285996509270927</v>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>188</v>
       </c>
       <c r="E24" t="n">
         <v>257</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0155642023346304</v>
+        <v>0.0739299610894942</v>
       </c>
       <c r="H24" t="n">
-        <v>0.571428571428571</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="J24" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="K24" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="L24" t="n">
-        <v>6541</v>
+        <v>6539</v>
       </c>
       <c r="M24" t="n">
-        <v>3691</v>
+        <v>338</v>
       </c>
       <c r="N24" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0159266115571411</v>
+        <v>0.0476348924072227</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="E25" t="n">
         <v>257</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0155642023346304</v>
+        <v>0.066147859922179</v>
       </c>
       <c r="H25" t="n">
-        <v>0.571428571428571</v>
+        <v>0.103658536585366</v>
       </c>
       <c r="I25" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="J25" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="K25" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="L25" t="n">
-        <v>6541</v>
+        <v>6539</v>
       </c>
       <c r="M25" t="n">
-        <v>3692</v>
+        <v>119</v>
       </c>
       <c r="N25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.018209535929104</v>
-      </c>
-      <c r="D26" t="n">
-        <v>123</v>
-      </c>
-      <c r="E26" t="n">
-        <v>257</v>
-      </c>
-      <c r="F26" t="n">
-        <v>15</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.0583657587548638</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.121951219512195</v>
-      </c>
-      <c r="I26" t="s">
-        <v>194</v>
-      </c>
-      <c r="J26" t="s">
-        <v>124</v>
-      </c>
-      <c r="K26" t="s">
-        <v>195</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6541</v>
-      </c>
-      <c r="M26" t="n">
-        <v>117</v>
-      </c>
-      <c r="N26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.0191944863535876</v>
-      </c>
-      <c r="D27" t="n">
-        <v>13</v>
-      </c>
-      <c r="E27" t="n">
-        <v>257</v>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.0194552529182879</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.384615384615385</v>
-      </c>
-      <c r="I27" t="s">
-        <v>197</v>
-      </c>
-      <c r="J27" t="s">
-        <v>124</v>
-      </c>
-      <c r="K27" t="s">
-        <v>198</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6541</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2791</v>
-      </c>
-      <c r="N27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.0191944863535876</v>
-      </c>
-      <c r="D28" t="n">
-        <v>13</v>
-      </c>
-      <c r="E28" t="n">
-        <v>257</v>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0194552529182879</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.384615384615385</v>
-      </c>
-      <c r="I28" t="s">
-        <v>200</v>
-      </c>
-      <c r="J28" t="s">
-        <v>124</v>
-      </c>
-      <c r="K28" t="s">
-        <v>201</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6541</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2799</v>
-      </c>
-      <c r="N28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" t="b">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.0289052230832384</v>
-      </c>
-      <c r="D29" t="n">
-        <v>14</v>
-      </c>
-      <c r="E29" t="n">
-        <v>257</v>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0194552529182879</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.357142857142857</v>
-      </c>
-      <c r="I29" t="s">
-        <v>202</v>
-      </c>
-      <c r="J29" t="s">
-        <v>124</v>
-      </c>
-      <c r="K29" t="s">
-        <v>203</v>
-      </c>
-      <c r="L29" t="n">
-        <v>6541</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2310</v>
-      </c>
-      <c r="N29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.0307003249374406</v>
-      </c>
-      <c r="D30" t="n">
-        <v>189</v>
-      </c>
-      <c r="E30" t="n">
-        <v>257</v>
-      </c>
-      <c r="F30" t="n">
-        <v>19</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.0739299610894942</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.100529100529101</v>
-      </c>
-      <c r="I30" t="s">
-        <v>205</v>
-      </c>
-      <c r="J30" t="s">
-        <v>124</v>
-      </c>
-      <c r="K30" t="s">
-        <v>206</v>
-      </c>
-      <c r="L30" t="n">
-        <v>6541</v>
-      </c>
-      <c r="M30" t="n">
-        <v>338</v>
-      </c>
-      <c r="N30" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" t="b">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.0308705707613176</v>
-      </c>
-      <c r="D31" t="n">
-        <v>8</v>
-      </c>
-      <c r="E31" t="n">
-        <v>257</v>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0155642023346304</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I31" t="s">
-        <v>208</v>
-      </c>
-      <c r="J31" t="s">
-        <v>124</v>
-      </c>
-      <c r="K31" t="s">
-        <v>209</v>
-      </c>
-      <c r="L31" t="n">
-        <v>6541</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1458</v>
-      </c>
-      <c r="N31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" t="b">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0476681288408297</v>
-      </c>
-      <c r="D32" t="n">
-        <v>164</v>
-      </c>
-      <c r="E32" t="n">
-        <v>257</v>
-      </c>
-      <c r="F32" t="n">
-        <v>17</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.066147859922179</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.103658536585366</v>
-      </c>
-      <c r="I32" t="s">
-        <v>211</v>
-      </c>
-      <c r="J32" t="s">
-        <v>124</v>
-      </c>
-      <c r="K32" t="s">
-        <v>212</v>
-      </c>
-      <c r="L32" t="n">
-        <v>6541</v>
-      </c>
-      <c r="M32" t="n">
-        <v>119</v>
-      </c>
-      <c r="N32" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
